--- a/POO-Programa1/sismos.xlsx
+++ b/POO-Programa1/sismos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Fecha</t>
   </si>
@@ -56,10 +56,58 @@
     <t>Fue fuerte</t>
   </si>
   <si>
+    <t>9.532</t>
+  </si>
+  <si>
     <t>-11.453</t>
   </si>
   <si>
-    <t>9.532</t>
+    <t>10/10/2010 23:45:32</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>42,3</t>
+  </si>
+  <si>
+    <t>Tectonico_Falla_Local</t>
+  </si>
+  <si>
+    <t>Limón</t>
+  </si>
+  <si>
+    <t>Reportado en todas las provincias</t>
+  </si>
+  <si>
+    <t>-11.234</t>
+  </si>
+  <si>
+    <t>4.321</t>
+  </si>
+  <si>
+    <t>01/01/2011 01:01:01</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>Choque_Placas</t>
+  </si>
+  <si>
+    <t>Mar_Caribe</t>
+  </si>
+  <si>
+    <t>Choque de la placa tectonica coco</t>
+  </si>
+  <si>
+    <t>11.45</t>
+  </si>
+  <si>
+    <t>12.43</t>
   </si>
 </sst>
 </file>
@@ -162,6 +210,58 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
